--- a/Data/EC/NIT-8060050891.xlsx
+++ b/Data/EC/NIT-8060050891.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03D49066-D25A-47FC-B67B-892A62CF81EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AA5F83E-BAE6-4715-8C83-8F3709A40F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B69A343-28FB-4C51-9CC8-ADA9A80272E8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2E54B594-467E-45AE-9972-111CDBDA8F75}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="175">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,28 +65,409 @@
     <t>CC</t>
   </si>
   <si>
+    <t>32937946</t>
+  </si>
+  <si>
+    <t>LORCY JOHANNA PEDROZA GARCIA</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>22808577</t>
+  </si>
+  <si>
+    <t>ELVIA ESTHER HURTADO CUADRO</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>1128048403</t>
+  </si>
+  <si>
+    <t>LISBETH MARIA CAUSADO BERRIO</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1043636993</t>
+  </si>
+  <si>
+    <t>MADELAINE CARDENAS SIERRA</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
     <t>1128051913</t>
   </si>
   <si>
     <t>NATALY PAOLA SOLAR TORRES</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
+    <t>1143326150</t>
+  </si>
+  <si>
+    <t>ELOISA VICTORIA OROZCO ARAUJO</t>
+  </si>
+  <si>
+    <t>1003408634</t>
+  </si>
+  <si>
+    <t>YANDRY BEATRIZ PALACIO BENEDETTY</t>
+  </si>
+  <si>
+    <t>73197879</t>
+  </si>
+  <si>
+    <t>ALVARO DANIEL HERRERA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1047474045</t>
+  </si>
+  <si>
+    <t>JONATAN DAMIAN RAMOS MORALES</t>
+  </si>
+  <si>
+    <t>1047396250</t>
+  </si>
+  <si>
+    <t>NATALY ALCALA PEREZ</t>
+  </si>
+  <si>
+    <t>1143366003</t>
+  </si>
+  <si>
+    <t>MICHEL CASTILLO BARRAZA</t>
+  </si>
+  <si>
+    <t>1001970977</t>
+  </si>
+  <si>
+    <t>BELKIS BEDOYA BLANCO</t>
+  </si>
+  <si>
+    <t>1143376380</t>
+  </si>
+  <si>
+    <t>YORYINA BERRIO DIAZ</t>
   </si>
   <si>
     <t>1100397929</t>
@@ -95,211 +476,28 @@
     <t>STELLA PAOLA RUIZ FIGUEREO</t>
   </si>
   <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1003408634</t>
-  </si>
-  <si>
-    <t>YANDRY BEATRIZ PALACIO BENEDETTY</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1143366003</t>
-  </si>
-  <si>
-    <t>MICHEL CASTILLO BARRAZA</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1128048403</t>
-  </si>
-  <si>
-    <t>LISBETH MARIA CAUSADO BERRIO</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>73197879</t>
-  </si>
-  <si>
-    <t>ALVARO DANIEL HERRERA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>22808577</t>
-  </si>
-  <si>
-    <t>ELVIA ESTHER HURTADO CUADRO</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
+    <t>1043294808</t>
+  </si>
+  <si>
+    <t>YILSON JAVIER TORRES MIRANDA</t>
+  </si>
+  <si>
+    <t>1235046789</t>
+  </si>
+  <si>
+    <t>EMANUEL MICHAEL VILORIA VARGAS</t>
+  </si>
+  <si>
+    <t>1047445349</t>
+  </si>
+  <si>
+    <t>SULIME MIRANDA GARCIA</t>
+  </si>
+  <si>
+    <t>1005574506</t>
+  </si>
+  <si>
+    <t>KATTY JULIETH TORRES CAMAÑO</t>
   </si>
   <si>
     <t>1002257439</t>
@@ -308,40 +506,16 @@
     <t>KATERIN JOHANNA CARRILLO RAMOS</t>
   </si>
   <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
+    <t>1047501412</t>
+  </si>
+  <si>
+    <t>ANGHY MARCELA RUIZ CABARCAS</t>
+  </si>
+  <si>
+    <t>1007983279</t>
+  </si>
+  <si>
+    <t>YONNY JESUS BUELVAS BALLESTERO</t>
   </si>
   <si>
     <t>1193328102</t>
@@ -350,97 +524,10 @@
     <t>MARY GREY CABARCAS HERNANDEZ</t>
   </si>
   <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1048600033</t>
+  </si>
+  <si>
+    <t>KEINER ENRIQUE CARRILLO RAMOS</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -854,7 +941,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A71EA8D-9E58-DFF1-1205-2CF055AC0F93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A60F635-B869-EC56-E22B-7175D8AC58EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,8 +1292,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80F6304-0ACE-43A3-8B11-C9A8B2200492}">
-  <dimension ref="B2:J240"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB8EF57-1340-4B4C-A588-5BD471769E5B}">
+  <dimension ref="B2:J260"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1230,7 +1317,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1275,7 +1362,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1307,12 +1394,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>10341790</v>
+        <v>10696208</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1323,17 +1410,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="F13" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1360,13 +1447,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1383,10 +1470,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>65568</v>
+        <v>35112</v>
       </c>
       <c r="G16" s="18">
-        <v>1639190</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1406,10 +1493,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>65568</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
-        <v>1639190</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1429,10 +1516,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>65568</v>
+        <v>35112</v>
       </c>
       <c r="G18" s="18">
-        <v>1639190</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1443,19 +1530,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>65568</v>
+        <v>1211</v>
       </c>
       <c r="G19" s="18">
-        <v>1639190</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1466,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1489,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
-        <v>65568</v>
+        <v>6187</v>
       </c>
       <c r="G21" s="18">
-        <v>1639190</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1512,19 +1599,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1535,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F23" s="18">
         <v>65568</v>
@@ -1558,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F24" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1581,19 +1668,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F25" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1604,13 +1691,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F26" s="18">
         <v>65568</v>
@@ -1627,19 +1714,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F27" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1650,13 +1737,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F28" s="18">
         <v>65568</v>
@@ -1673,13 +1760,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F29" s="18">
         <v>65568</v>
@@ -1696,19 +1783,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="F30" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1719,13 +1806,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F31" s="18">
         <v>65568</v>
@@ -1742,19 +1829,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F32" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1765,13 +1852,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F33" s="18">
         <v>65568</v>
@@ -1788,19 +1875,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F34" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1811,13 +1898,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F35" s="18">
         <v>65568</v>
@@ -1834,19 +1921,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F36" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1857,13 +1944,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F37" s="18">
         <v>65568</v>
@@ -1880,19 +1967,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F38" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1903,19 +1990,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1926,13 +2013,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="F40" s="18">
         <v>65568</v>
@@ -1949,19 +2036,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F41" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1972,19 +2059,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F42" s="18">
-        <v>15738</v>
+        <v>65568</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>1639190</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1995,13 +2082,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="F43" s="18">
         <v>65568</v>
@@ -2018,13 +2105,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F44" s="18">
         <v>65568</v>
@@ -2041,19 +2128,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>65568</v>
       </c>
       <c r="G45" s="18">
-        <v>908526</v>
+        <v>1639190</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -2064,19 +2151,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F46" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -2087,19 +2174,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F47" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2110,13 +2197,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F48" s="18">
         <v>65568</v>
@@ -2133,19 +2220,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="F49" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2156,13 +2243,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F50" s="18">
         <v>65568</v>
@@ -2179,13 +2266,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="F51" s="18">
         <v>65568</v>
@@ -2202,19 +2289,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F52" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G52" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2225,19 +2312,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F53" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G53" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2248,13 +2335,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F54" s="18">
         <v>65568</v>
@@ -2271,19 +2358,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F55" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2294,13 +2381,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F56" s="18">
         <v>65568</v>
@@ -2317,19 +2404,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2340,13 +2427,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F58" s="18">
         <v>65568</v>
@@ -2363,19 +2450,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2386,13 +2473,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F60" s="18">
         <v>65568</v>
@@ -2409,13 +2496,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="F61" s="18">
         <v>65568</v>
@@ -2432,19 +2519,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F62" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2455,13 +2542,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="F63" s="18">
         <v>65568</v>
@@ -2478,19 +2565,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="F64" s="18">
-        <v>27578</v>
+        <v>65568</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2501,19 +2588,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2524,13 +2611,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F66" s="18">
         <v>65568</v>
@@ -2547,19 +2634,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F67" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2570,13 +2657,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="F68" s="18">
         <v>65568</v>
@@ -2593,13 +2680,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F69" s="18">
         <v>65568</v>
@@ -2616,19 +2703,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F70" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2639,13 +2726,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F71" s="18">
         <v>65568</v>
@@ -2662,19 +2749,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F72" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G72" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2685,19 +2772,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F73" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2708,13 +2795,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F74" s="18">
         <v>65568</v>
@@ -2731,19 +2818,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F75" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2754,19 +2841,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F76" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G76" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2777,19 +2864,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2800,13 +2887,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F78" s="18">
         <v>65568</v>
@@ -2823,13 +2910,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F79" s="18">
         <v>65568</v>
@@ -2846,19 +2933,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G80" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2869,19 +2956,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G81" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2892,13 +2979,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="F82" s="18">
         <v>65568</v>
@@ -2915,13 +3002,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F83" s="18">
         <v>65568</v>
@@ -2938,19 +3025,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G84" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2961,19 +3048,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G85" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2984,13 +3071,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F86" s="18">
         <v>65568</v>
@@ -3007,19 +3094,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G87" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -3030,13 +3117,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="F88" s="18">
         <v>65568</v>
@@ -3053,19 +3140,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G89" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -3076,13 +3163,13 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="F90" s="18">
         <v>65568</v>
@@ -3099,13 +3186,13 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="F91" s="18">
         <v>65568</v>
@@ -3122,19 +3209,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G92" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3145,19 +3232,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G93" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3168,13 +3255,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F94" s="18">
         <v>65568</v>
@@ -3191,13 +3278,13 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F95" s="18">
         <v>65568</v>
@@ -3214,19 +3301,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G96" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3237,19 +3324,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G97" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3260,13 +3347,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="F98" s="18">
         <v>65568</v>
@@ -3283,19 +3370,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G99" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3306,13 +3393,13 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F100" s="18">
         <v>65568</v>
@@ -3329,19 +3416,19 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="F101" s="18">
-        <v>3511</v>
+        <v>65568</v>
       </c>
       <c r="G101" s="18">
-        <v>877803</v>
+        <v>1639190</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3352,13 +3439,13 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="F102" s="18">
         <v>65568</v>
@@ -3375,19 +3462,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G103" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3398,13 +3485,13 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="F104" s="18">
         <v>65568</v>
@@ -3421,19 +3508,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G105" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3444,13 +3531,13 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="F106" s="18">
         <v>65568</v>
@@ -3467,19 +3554,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G107" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3490,19 +3577,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G108" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3513,13 +3600,13 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="F109" s="18">
         <v>65568</v>
@@ -3536,13 +3623,13 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="F110" s="18">
         <v>65568</v>
@@ -3559,19 +3646,19 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G111" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3582,19 +3669,19 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G112" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3605,13 +3692,13 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="F113" s="18">
         <v>65568</v>
@@ -3628,19 +3715,19 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G114" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3651,13 +3738,13 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="F115" s="18">
         <v>65568</v>
@@ -3674,19 +3761,19 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G116" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3697,13 +3784,13 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="F117" s="18">
         <v>65568</v>
@@ -3720,13 +3807,13 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="F118" s="18">
         <v>65568</v>
@@ -3743,19 +3830,19 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G119" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3766,19 +3853,19 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G120" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3789,13 +3876,13 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F121" s="18">
         <v>65568</v>
@@ -3812,13 +3899,13 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F122" s="18">
         <v>65568</v>
@@ -3835,19 +3922,19 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G123" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3858,19 +3945,19 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G124" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3881,13 +3968,13 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="F125" s="18">
         <v>65568</v>
@@ -3904,13 +3991,13 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F126" s="18">
         <v>65568</v>
@@ -3927,19 +4014,19 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G127" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3950,19 +4037,19 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>65568</v>
       </c>
       <c r="G128" s="18">
-        <v>781242</v>
+        <v>1639190</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3973,13 +4060,13 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="F129" s="18">
         <v>65568</v>
@@ -3996,19 +4083,19 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="F130" s="18">
-        <v>1211</v>
+        <v>65568</v>
       </c>
       <c r="G130" s="18">
-        <v>908526</v>
+        <v>1639190</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -4019,19 +4106,19 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F131" s="18">
-        <v>65568</v>
+        <v>1733</v>
       </c>
       <c r="G131" s="18">
-        <v>1639190</v>
+        <v>1423500</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -4042,19 +4129,19 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G132" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -4065,19 +4152,19 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>15738</v>
       </c>
       <c r="G133" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -4088,19 +4175,19 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F134" s="18">
-        <v>65568</v>
+        <v>3511</v>
       </c>
       <c r="G134" s="18">
-        <v>1639190</v>
+        <v>877803</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -4111,19 +4198,19 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>1733</v>
       </c>
       <c r="G135" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
@@ -4134,19 +4221,19 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F136" s="18">
-        <v>65568</v>
+        <v>1333</v>
       </c>
       <c r="G136" s="18">
-        <v>1639190</v>
+        <v>1160000</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
@@ -4157,19 +4244,19 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F137" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G137" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4180,19 +4267,19 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="F138" s="18">
-        <v>31249</v>
+        <v>1733</v>
       </c>
       <c r="G138" s="18">
-        <v>781242</v>
+        <v>1423500</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
@@ -4203,19 +4290,19 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F139" s="18">
-        <v>65568</v>
+        <v>1042</v>
       </c>
       <c r="G139" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
@@ -4226,13 +4313,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="F140" s="18">
         <v>31249</v>
@@ -4249,13 +4336,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="F141" s="18">
         <v>31249</v>
@@ -4272,19 +4359,19 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="F142" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G142" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
@@ -4295,13 +4382,13 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="F143" s="18">
         <v>31249</v>
@@ -4318,19 +4405,19 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="F144" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G144" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
@@ -4341,13 +4428,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="F145" s="18">
         <v>31249</v>
@@ -4364,19 +4451,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F146" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G146" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
@@ -4387,19 +4474,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F147" s="18">
-        <v>2423</v>
+        <v>31249</v>
       </c>
       <c r="G147" s="18">
-        <v>908526</v>
+        <v>781242</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
@@ -4410,19 +4497,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F148" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
@@ -4433,13 +4520,13 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="F149" s="18">
         <v>31249</v>
@@ -4456,19 +4543,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="F150" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G150" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
@@ -4479,13 +4566,13 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="F151" s="18">
         <v>31249</v>
@@ -4502,13 +4589,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4525,19 +4612,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="F153" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G153" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
@@ -4548,13 +4635,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4571,19 +4658,19 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="F155" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G155" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
@@ -4594,19 +4681,19 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="F156" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G156" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
@@ -4617,13 +4704,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4640,19 +4727,19 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="F158" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G158" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
@@ -4663,13 +4750,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4686,19 +4773,19 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F160" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G160" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
@@ -4709,13 +4796,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4732,19 +4819,19 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="F162" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G162" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
@@ -4755,13 +4842,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
@@ -4778,19 +4865,19 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="F164" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G164" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
@@ -4801,13 +4888,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4824,19 +4911,19 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="F166" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G166" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
@@ -4847,13 +4934,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
@@ -4870,13 +4957,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4893,19 +4980,19 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="F169" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G169" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
@@ -4916,13 +5003,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
@@ -4939,19 +5026,19 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="F171" s="18">
-        <v>4000</v>
+        <v>31249</v>
       </c>
       <c r="G171" s="18">
-        <v>1300000</v>
+        <v>781242</v>
       </c>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
@@ -4962,19 +5049,19 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="F172" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G172" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
@@ -4985,13 +5072,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
@@ -5008,19 +5095,19 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="F174" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G174" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
@@ -5031,19 +5118,19 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="F175" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G175" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
@@ -5054,13 +5141,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
@@ -5077,19 +5164,19 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="F177" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G177" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
@@ -5100,13 +5187,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F178" s="18">
         <v>31249</v>
@@ -5123,13 +5210,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F179" s="18">
         <v>31249</v>
@@ -5146,19 +5233,19 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="F180" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G180" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
@@ -5169,13 +5256,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F181" s="18">
         <v>31249</v>
@@ -5192,19 +5279,19 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="F182" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G182" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
@@ -5215,13 +5302,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="F183" s="18">
         <v>31249</v>
@@ -5238,19 +5325,19 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="F184" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G184" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
@@ -5261,19 +5348,19 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="F185" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G185" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
@@ -5284,13 +5371,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F186" s="18">
         <v>31249</v>
@@ -5307,19 +5394,19 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="F187" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G187" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
@@ -5330,13 +5417,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="F188" s="18">
         <v>31249</v>
@@ -5353,19 +5440,19 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="F189" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G189" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
@@ -5376,13 +5463,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="F190" s="18">
         <v>31249</v>
@@ -5399,13 +5486,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5422,19 +5509,19 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="F192" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G192" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
@@ -5445,13 +5532,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="F193" s="18">
         <v>31249</v>
@@ -5468,19 +5555,19 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="F194" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G194" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
@@ -5491,13 +5578,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5514,19 +5601,19 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="F196" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G196" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
@@ -5537,13 +5624,13 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="F197" s="18">
         <v>31249</v>
@@ -5560,19 +5647,19 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="F198" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G198" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
@@ -5583,13 +5670,13 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E199" s="16" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F199" s="18">
         <v>31249</v>
@@ -5606,19 +5693,19 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E200" s="16" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="F200" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G200" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
@@ -5629,19 +5716,19 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="F201" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
@@ -5652,13 +5739,13 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="F202" s="18">
         <v>31249</v>
@@ -5675,19 +5762,19 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="F203" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G203" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
@@ -5698,13 +5785,13 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="F204" s="18">
         <v>31249</v>
@@ -5721,13 +5808,13 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="F205" s="18">
         <v>31249</v>
@@ -5744,19 +5831,19 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F206" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G206" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
@@ -5767,13 +5854,13 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F207" s="18">
         <v>31249</v>
@@ -5790,19 +5877,19 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F208" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
@@ -5813,13 +5900,13 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="F209" s="18">
         <v>31249</v>
@@ -5836,19 +5923,19 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="F210" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
@@ -5859,13 +5946,13 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="F211" s="18">
         <v>31249</v>
@@ -5882,19 +5969,19 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F212" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
@@ -5905,19 +5992,19 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="F213" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
@@ -5928,13 +6015,13 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="F214" s="18">
         <v>31249</v>
@@ -5951,19 +6038,19 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="F215" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
@@ -5974,13 +6061,13 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="F216" s="18">
         <v>31249</v>
@@ -5997,19 +6084,19 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="F217" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
@@ -6020,13 +6107,13 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="F218" s="18">
         <v>31249</v>
@@ -6043,19 +6130,19 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="F219" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
@@ -6066,13 +6153,13 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="F220" s="18">
         <v>31249</v>
@@ -6089,19 +6176,19 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="F221" s="18">
-        <v>65568</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
@@ -6112,13 +6199,13 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="F222" s="18">
         <v>31249</v>
@@ -6135,19 +6222,19 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="F223" s="18">
-        <v>65568</v>
+        <v>27578</v>
       </c>
       <c r="G223" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
@@ -6158,16 +6245,16 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="F224" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G224" s="18">
         <v>781242</v>
@@ -6181,16 +6268,16 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F225" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G225" s="18">
         <v>781242</v>
@@ -6204,19 +6291,19 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="F226" s="18">
-        <v>65568</v>
+        <v>27578</v>
       </c>
       <c r="G226" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
@@ -6227,19 +6314,19 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F227" s="18">
-        <v>65568</v>
+        <v>27578</v>
       </c>
       <c r="G227" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H227" s="19"/>
       <c r="I227" s="19"/>
@@ -6250,16 +6337,16 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="F228" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G228" s="18">
         <v>781242</v>
@@ -6273,19 +6360,19 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F229" s="18">
-        <v>65568</v>
+        <v>27578</v>
       </c>
       <c r="G229" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H229" s="19"/>
       <c r="I229" s="19"/>
@@ -6296,16 +6383,16 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="F230" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G230" s="18">
         <v>781242</v>
@@ -6319,16 +6406,16 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F231" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G231" s="18">
         <v>781242</v>
@@ -6342,19 +6429,19 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F232" s="18">
-        <v>65568</v>
+        <v>27578</v>
       </c>
       <c r="G232" s="18">
-        <v>1639190</v>
+        <v>781242</v>
       </c>
       <c r="H232" s="19"/>
       <c r="I232" s="19"/>
@@ -6365,16 +6452,16 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F233" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G233" s="18">
         <v>781242</v>
@@ -6384,56 +6471,516 @@
       <c r="J233" s="20"/>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B234" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C234" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E234" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="F234" s="24">
-        <v>65568</v>
-      </c>
-      <c r="G234" s="24">
-        <v>1639190</v>
-      </c>
-      <c r="H234" s="25"/>
-      <c r="I234" s="25"/>
-      <c r="J234" s="26"/>
+      <c r="B234" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D234" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E234" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F234" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G234" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H234" s="19"/>
+      <c r="I234" s="19"/>
+      <c r="J234" s="20"/>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B235" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D235" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E235" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F235" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G235" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H235" s="19"/>
+      <c r="I235" s="19"/>
+      <c r="J235" s="20"/>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B236" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D236" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E236" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F236" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G236" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H236" s="19"/>
+      <c r="I236" s="19"/>
+      <c r="J236" s="20"/>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B237" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D237" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F237" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G237" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H237" s="19"/>
+      <c r="I237" s="19"/>
+      <c r="J237" s="20"/>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B238" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D238" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E238" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F238" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G238" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H238" s="19"/>
+      <c r="I238" s="19"/>
+      <c r="J238" s="20"/>
     </row>
     <row r="239" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B239" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C239" s="32"/>
-      <c r="H239" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
+      <c r="B239" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D239" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E239" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F239" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G239" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H239" s="19"/>
+      <c r="I239" s="19"/>
+      <c r="J239" s="20"/>
     </row>
     <row r="240" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B240" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C240" s="32"/>
-      <c r="H240" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
+      <c r="B240" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D240" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E240" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F240" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G240" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H240" s="19"/>
+      <c r="I240" s="19"/>
+      <c r="J240" s="20"/>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B241" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D241" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E241" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F241" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G241" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H241" s="19"/>
+      <c r="I241" s="19"/>
+      <c r="J241" s="20"/>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B242" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D242" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E242" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F242" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G242" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H242" s="19"/>
+      <c r="I242" s="19"/>
+      <c r="J242" s="20"/>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B243" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D243" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E243" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F243" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G243" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H243" s="19"/>
+      <c r="I243" s="19"/>
+      <c r="J243" s="20"/>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B244" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D244" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F244" s="18">
+        <v>1733</v>
+      </c>
+      <c r="G244" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H244" s="19"/>
+      <c r="I244" s="19"/>
+      <c r="J244" s="20"/>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B245" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D245" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F245" s="18">
+        <v>1333</v>
+      </c>
+      <c r="G245" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H245" s="19"/>
+      <c r="I245" s="19"/>
+      <c r="J245" s="20"/>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B246" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D246" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F246" s="18">
+        <v>1733</v>
+      </c>
+      <c r="G246" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H246" s="19"/>
+      <c r="I246" s="19"/>
+      <c r="J246" s="20"/>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B247" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D247" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F247" s="18">
+        <v>1333</v>
+      </c>
+      <c r="G247" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H247" s="19"/>
+      <c r="I247" s="19"/>
+      <c r="J247" s="20"/>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B248" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D248" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E248" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F248" s="18">
+        <v>1333</v>
+      </c>
+      <c r="G248" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H248" s="19"/>
+      <c r="I248" s="19"/>
+      <c r="J248" s="20"/>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B249" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D249" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E249" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F249" s="18">
+        <v>2423</v>
+      </c>
+      <c r="G249" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H249" s="19"/>
+      <c r="I249" s="19"/>
+      <c r="J249" s="20"/>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B250" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E250" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F250" s="18">
+        <v>36341</v>
+      </c>
+      <c r="G250" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H250" s="19"/>
+      <c r="I250" s="19"/>
+      <c r="J250" s="20"/>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B251" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D251" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F251" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G251" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H251" s="19"/>
+      <c r="I251" s="19"/>
+      <c r="J251" s="20"/>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B252" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D252" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E252" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F252" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G252" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H252" s="19"/>
+      <c r="I252" s="19"/>
+      <c r="J252" s="20"/>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B253" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D253" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E253" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F253" s="18">
+        <v>4000</v>
+      </c>
+      <c r="G253" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H253" s="19"/>
+      <c r="I253" s="19"/>
+      <c r="J253" s="20"/>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B254" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D254" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E254" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F254" s="24">
+        <v>46400</v>
+      </c>
+      <c r="G254" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H254" s="25"/>
+      <c r="I254" s="25"/>
+      <c r="J254" s="26"/>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B259" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="C259" s="32"/>
+      <c r="H259" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I259" s="1"/>
+      <c r="J259" s="1"/>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B260" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C260" s="32"/>
+      <c r="H260" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I260" s="1"/>
+      <c r="J260" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="H240:J240"/>
-    <mergeCell ref="H239:J239"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="H260:J260"/>
+    <mergeCell ref="H259:J259"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
